--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1801124.608792653</v>
+        <v>1794107.593900942</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>127.7071829630231</v>
+        <v>66.23525597315229</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38.85099796338674</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>138.105925282704</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>313.5824896553655</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>138.274491382294</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>123.2558368419816</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="S10" t="n">
-        <v>83.73387003146748</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>24.77826559155597</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>58.4016882597743</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>140.0399591683214</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>4.467071307536735</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>144.4797853959761</v>
       </c>
       <c r="U22" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>34.00618803163707</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>101.2130831850508</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>143.5156431495047</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1230839111947</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>17.34395602767433</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>104.435614114766</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>121.9303464341693</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>140.567810896169</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -3681,7 +3681,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>80.04606869856578</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>33.35146980185879</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>97.24018360678566</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1534.318342165211</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C2" t="n">
-        <v>1165.3558252248</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>1920.918182229333</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2159.291999533505</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C4" t="n">
-        <v>2159.291999533505</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D4" t="n">
-        <v>2159.291999533505</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>2159.291999533505</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>2159.291999533505</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2380.084578677035</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2159.291999533505</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.10866026757</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C5" t="n">
-        <v>1353.10866026757</v>
+        <v>558.825384592777</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>200.5596859860265</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>200.5596859860265</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>193.6141852368231</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2122.807401540017</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2122.807401540017</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2122.807401540017</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S10" t="n">
-        <v>614.1323983616041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>614.1323983616041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>614.1323983616041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>614.1323983616041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>614.1323983616041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>614.1323983616041</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.339819218074</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1362.812616017146</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>822.6812376143602</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>594.6916867163428</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>3777.748724048912</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1041.981979867628</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>752.8533410811858</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.6946978510159</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C28" t="n">
-        <v>561.6946978510159</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D28" t="n">
-        <v>561.6946978510159</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>561.6946978510159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>964.1357418247858</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>964.1357418247858</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.3431626812556</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,22 +6448,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4034.708103745581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3865.771920817674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3715.655281405338</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>4437.14914771935</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>4437.14914771935</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>4437.14914771935</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y31" t="n">
-        <v>4216.35656857582</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,7 +6797,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3889.283315426963</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.283315426963</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426963</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426963</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4549.85945949167</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.957354530868</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>4117.272866324981</v>
+        <v>946.6165943220844</v>
       </c>
       <c r="W34" t="n">
-        <v>4117.272866324981</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="X34" t="n">
-        <v>3889.283315426963</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="Y34" t="n">
-        <v>3889.283315426963</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6931,34 +6931,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,19 +7022,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>665.6859735286132</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
         <v>265.3924131404652</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.135741824786</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>964.135741824786</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W40" t="n">
-        <v>964.135741824786</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X40" t="n">
-        <v>964.135741824786</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.135741824786</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9054447954967</v>
+        <v>822.148054050878</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9054447954967</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9054447954967</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E43" t="n">
-        <v>130.9054447954967</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F43" t="n">
-        <v>130.9054447954967</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>130.9054447954967</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9054447954967</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>1111.565224087839</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>822.148054050878</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954967</v>
+        <v>822.148054050878</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954967</v>
+        <v>822.148054050878</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>261.4590868070214</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>146.4830391682696</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>282.0559270290543</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>77.0677756624132</v>
       </c>
       <c r="U22" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.4148599912942</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>117.371570167044</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>2.918319497064516</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="32">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.1142684873827</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>234.7936872961537</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>44.17985890344634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>99.61721462421993</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>8.047662122043363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>172.0915746252622</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>154.8974597170424</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="G2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="H2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="H2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
@@ -26349,13 +26349,13 @@
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26456,10 +26456,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26487,25 +26487,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993016</v>
+        <v>-325308.7188993014</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152431</v>
+        <v>264659.1603152434</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152432</v>
+        <v>264659.1603152433</v>
       </c>
       <c r="E6" t="n">
-        <v>-150535.6453403476</v>
+        <v>-151510.2366000692</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.799876827</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365482</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439559</v>
+        <v>197226.5806842341</v>
       </c>
       <c r="K6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768268</v>
       </c>
       <c r="L6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="M6" t="n">
-        <v>239823.3759027114</v>
+        <v>238848.7846429898</v>
       </c>
       <c r="N6" t="n">
-        <v>374624.3911365487</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="O6" t="n">
-        <v>374624.3911365486</v>
+        <v>373649.7998768269</v>
       </c>
       <c r="P6" t="n">
-        <v>374624.3911365485</v>
+        <v>373649.7998768268</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>226.9758586576599</v>
+        <v>288.4477856475307</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>87.60373010633316</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.10055196531744</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>275.509678638501</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>22.82750184132354</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>127.9683306663077</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>86.9383544042894</v>
       </c>
       <c r="S10" t="n">
-        <v>128.4116689185514</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35977,10 +35977,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1794107.593900942</v>
+        <v>1799046.856749974</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>66.23525597315229</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.639456923121987</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>206.0978190620148</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>138.274491382294</v>
+        <v>138.2744913822945</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343913981</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.46179076613092</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>42.18007463019025</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>24.77826559155597</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>140.0399591683214</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>79.51226215878138</v>
       </c>
     </row>
     <row r="17">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.627084658457212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>144.4797853959761</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>60.5104169322369</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.2130831850508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>50.37907584939722</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>17.34395602767433</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>121.9303464341693</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>225.2513283148959</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>80.04606869856578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
-        <v>97.24018360678566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.58524627281</v>
+        <v>1194.534876920951</v>
       </c>
       <c r="C2" t="n">
-        <v>1335.58524627281</v>
+        <v>825.5723599805394</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>467.3066613737889</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>81.51840877554469</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>74.57290802634121</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>60.64950396493212</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>60.64950396493212</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="3">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.885551920185</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C4" t="n">
         <v>519.9493689922781</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.7879015331887</v>
+        <v>927.7879015331891</v>
       </c>
       <c r="C5" t="n">
-        <v>558.825384592777</v>
+        <v>558.8253845927775</v>
       </c>
       <c r="D5" t="n">
-        <v>200.5596859860265</v>
+        <v>200.559685986027</v>
       </c>
       <c r="E5" t="n">
-        <v>200.5596859860265</v>
+        <v>200.559685986027</v>
       </c>
       <c r="F5" t="n">
-        <v>193.6141852368231</v>
+        <v>193.6141852368235</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4603,16 +4603,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1314.387741597311</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,67 +4701,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
         <v>684.3735766921516</v>
@@ -4795,43 +4795,43 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
         <v>2636.076575092838</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C13" t="n">
         <v>247.3337308726216</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1362.812616017146</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1108.128127811259</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>818.7109577742983</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X13" t="n">
-        <v>818.7109577742983</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.9183786307682</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5466,19 +5466,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>822.6812376143602</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X16" t="n">
-        <v>594.6916867163428</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y16" t="n">
         <v>594.6916867163428</v>
@@ -5506,10 +5506,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="20">
@@ -5837,13 +5837,13 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
         <v>2123.441607278215</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1041.981979867628</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>752.8533410811858</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>498.168852875299</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>208.7516828383384</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>208.7516828383384</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,7 +6074,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
         <v>1514.038914395485</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.358329063101</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C28" t="n">
-        <v>563.4221461351941</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>413.3055067228584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
         <v>265.3924131404652</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>959.3247338766356</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.242231453998</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y28" t="n">
-        <v>914.0067938933407</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,22 +6448,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>993.4238168641361</v>
       </c>
       <c r="X31" t="n">
-        <v>303.1196361220957</v>
+        <v>765.4342659661188</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="32">
@@ -6685,19 +6685,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6785,19 +6785,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>946.6165943220844</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>657.1994242851239</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1064.759190940159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1064.759190940159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1064.759190940159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>1064.759190940159</v>
+        <v>1271.389676300432</v>
       </c>
       <c r="X37" t="n">
-        <v>836.769640042142</v>
+        <v>1043.400125402414</v>
       </c>
       <c r="Y37" t="n">
-        <v>615.9770608986119</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>705.2275916294825</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>415.8104215925219</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1111.565224087839</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>822.148054050878</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.0667464684376</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>261.4590868070214</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>146.4830391682696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>139.0723911933134</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>140.2867437090789</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>226.0125814043541</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.371570167044</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>236.1439224871938</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.74113413690304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>234.7936872961537</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>99.61721462421993</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>61.27167002169512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>172.0915746252622</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
-        <v>154.8974597170424</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651775</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26334,28 +26334,28 @@
         <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="N2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993014</v>
+        <v>-325308.7188993015</v>
       </c>
       <c r="C6" t="n">
-        <v>264659.1603152434</v>
+        <v>264659.1603152436</v>
       </c>
       <c r="D6" t="n">
-        <v>264659.1603152433</v>
+        <v>264659.1603152432</v>
       </c>
       <c r="E6" t="n">
-        <v>-151510.2366000692</v>
+        <v>-150633.1044663197</v>
       </c>
       <c r="F6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="G6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="H6" t="n">
-        <v>373649.799876827</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="I6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="J6" t="n">
-        <v>197226.5806842341</v>
+        <v>198103.7128179835</v>
       </c>
       <c r="K6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="L6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="M6" t="n">
-        <v>238848.7846429898</v>
+        <v>239725.9167767391</v>
       </c>
       <c r="N6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="O6" t="n">
-        <v>373649.7998768269</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="P6" t="n">
-        <v>373649.7998768268</v>
+        <v>374526.9320105765</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,7 +26758,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>288.4477856475307</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>145.2918593217393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9809822185506</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>12.48683429008003</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>275.509678638501</v>
+        <v>275.5096786385005</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>243.2051448974512</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>113.9539220428406</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915264</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>86.9383544042894</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36214,7 +36214,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37168,7 +37168,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
